--- a/crawling/연관검색어_2024-05-06-2024-05-13.xlsx
+++ b/crawling/연관검색어_2024-05-06-2024-05-13.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['가산디지털단지역 7호선가산디지털단지역 1호선가산디지털단지역 1호선 시간표가산디지털단지역 카페가산디지털단지역 술집가산디지털단지역 미용실가산디지털단지역 오피스텔가산디지털단지역 급행가산디지털단지역에서 광명역가산디지털단지역 초밥가산디지털단지역 이비인후과가산디지털단지역 스타벅스가산디지털단지역 원룸가산디지털단지역 다이소가산디지털단지역 영화관가산디지털단지역 정형외과가산디지털단지역 광명역가산디지털단지역 놀거리가산디지털단지역 아울렛가산디지털단지역 주차장']</t>
+          <t>['7호선', '1호선', '1호선 시간표', '카페', '술집', '미용실', '오피스텔', '급행', '에서 광명', '초밥', '이비인후과', '스타벅스', '원룸', '다이소', '영화관', '정형외과', '광명', '놀거리', '아울렛', '주차장']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['강남역 피부과강남역 카페강남역 놀거리강남역 미용실강남역 의대생강남역 혼밥강남역 살인강남역 브런치강남역 파스타강남역 다이소강남역 한우 봉우화로강남역 이자카야강남역 인질극강남역 메가박스강남역 옥상강남역 흉기강남역 투신강남역 의대강남역 인근강남역 흉기난동']</t>
+          <t>['피부과', '카페', '놀거리', '미용실', '의대생', '혼밥', '살인', '브런치', '파스타', '다이소', '한우 봉우화로', '이자카야', '인질극', '메가박스', '옥상', '흉기', '투신', '의대', '인근', '흉기난동']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['건대입구역 카페건대입구역 술집건대입구역 7호선건대입구역 놀거리건대 고베규카츠 건대입구역 돈까스건대입구역 헬스장건대입구역 2호선건대입구역 주차장건대입구역 미용실건대입구역 롯데시네마건대입구역 물품보관함건대입구역 오피스텔건대입구역 막차건대입구역 혼밥건대입구역 꽃집건대입구역 2호선 시간표건대입구역 공영주차장건대입구역 아파트건대입구역 영화관건대입구 맛집']</t>
+          <t>['카페', '술집', '7호선', '놀거리', '고베규카츠 건대입구역 돈까스', '헬스장', '2호선', '주차장', '미용실', '롯데시네마', '물품보관함', '오피스텔', '막차', '혼밥', '꽃집', '2호선 시간표', '공영주차장', '아파트', '영화관', '맛집']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['고덕역 맛집고덕역 피부과고덕역 미용실리안헤어 고덕역고덕역 카페고덕역 시간표9호선 고덕역고덕역 아파트고덕역 사진관고덕역 이비인후과고덕역 오피스텔고덕역 안과고덕역 정형외과고덕역 내과고덕역 공항버스고덕역 브런치고덕역 이마트고덕역 꽃집고덕역 술집고덕역 스터디카페']</t>
+          <t>['맛집', '피부과', '미용실', '리안헤어', '카페', '시간표', '9호선', '아파트', '사진관', '이비인후과', '오피스텔', '안과', '정형외과', '내과', '공항버스', '브런치', '이마트', '꽃집', '술집', '스터디카페']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['고속터미널역 9호선고속터미널역 카페고속터미널역 7호선고속터미널역 놀거리고속터미널역 9호선 시간표고속터미널역 술집고속터미널역 3호선 시간표고속터미널역 혼밥고속터미널역 신세계고속터미널역 꽃집고속터미널역 3호선고속터미널역 물품보관함고속터미널역 백화점고속터미널역 버스고속터미널역 옷고속터미널역 경부선고속터미널고속터미널 버스고속터미널역 맛집']</t>
+          <t>['9호선', '카페', '7호선', '놀거리', '9호선 시간표', '술집', '3호선 시간표', '혼밥', '신세계', '꽃집', '3호선', '물품보관함', '백화점', '버스', '옷', '경부선', '버스', '맛집']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['동해선 교대역교대역 카페동해남부선 교대역교대역하늘채뉴센트원동해선 교대역 시간표교대역닭고기교대역 푸르지오 트레힐즈교대역 미용실교대역 술집교대역 피부과교대역 3호선교대역 필라테스교대역 1호선교대역 부산교대역 대구교대 맛집교대서초역부산 교대역대구 교대역']</t>
+          <t>['동해선', '카페', '동해남부선', '하늘채뉴센트원', '동해선 교대역 시간표', '닭고기', '푸르지오 트레힐즈', '미용실', '술집', '피부과', '3호선', '필라테스', '1호선', '부산', '대구', '맛집', '서초', '부산', '구']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['구로디지털단지역 술집구로디지털단지역 카페구로디지털단지역 미용실구로디지털단지역 피부과구로디지털단지역 오피스텔구로디지털단지역 다이소구로디지털단지역 네일구로디지털단지역 아파트구로디지털단지역 별밤구로디지털단지역 야장구로디지털단지역 공영주차장구로디지털단지역 주차장구로디지털단지역 꽃집구로디지털단지역 놀거리구로디지털단지역 호텔구로디지털단지역 빵집구로디지털단지역 영화관구로디지털단지역 모텔구로디지털단지역 찜질방구로디지털단지역 이마트']</t>
+          <t>['술집', '카페', '미용실', '피부과', '오피스텔', '다이소', '네일', '아파트', '별밤', '야장', '공영주차장', '주차장', '꽃집', '놀거리', '호텔', '빵집', '영화관', '모텔', '찜질방', '이마트']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['구로역 맛집구로역 1호선구로역 전철시간표구로역 1호선 시간표구로역 시간표구로역 비욘더구로역 카페구로역 nc백화점구로역 피부관리실구로역 급행구로역 피부관리구로역 술집구로디지털역구로역에서 광명역구로역 마사지가산디지털단지역역곡역개봉역구로']</t>
+          <t>['맛집', '1호선', '전철시간표', '1호선 시간표', '시간표', '비욘더', '카페', 'nc백화점', '피부관리실', '급행', '피부관리', '술집', '디지털', '에서 광명', '마사지', '가산디지털단지', '곡', '개봉']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['군자역 맛집군자역 카페군자역 술집군자역 미용실군자역 7호선군자역 피부과군자역 메가박스군자역 오피스텔군자역 횟집군자역 숙성부심군자역 이자카야군자역 5호선군자역 꽃집군자역 스타벅스군자역 공항버스군자역 아파트군자역 곱창군자역 고기집군자역 삼겹살군자역 정형외과']</t>
+          <t>['맛집', '카페', '술집', '미용실', '7호선', '피부과', '메가박스', '오피스텔', '횟집', '숙성부심', '이자카야', '5호선', '꽃집', '스타벅스', '공항버스', '아파트', '곱창', '고기집', '삼겹살', '정형외과']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['남구로역 동일 센타시아남구로역 맛집남구로역 아파트남구로역 미용실남구로역 카페남구로역 재개발남구로역 화재남구로역 7호선남구로역 7호선 시간표남구로']</t>
+          <t>['동일 센타시아', '맛집', '아파트', '미용실', '카페', '재개발', '화재', '7호선', '7호선 시간표']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['대림역 맛집대림역 7호선대림역 2호선대림역 카페대림역 아파트대림역12번출구대림역 양꼬치대림역 포스큐대림역 술집대림역 공영주차장대림역 훠궈대림역 7호선 시간표대림역 2호선 시간표서울7호선대림역대림역 공항버스대림역 오피스텔대림역 주차장대림역 치안대림역 미용실대림역 막차']</t>
+          <t>['맛집', '7호선', '2호선', '카페', '아파트', '12번출구', '양꼬치', '포스큐', '술집', '공영주차장', '훠궈', '7호선 시간표', '2호선 시간표', '서울7호선', '공항버스', '오피스텔', '주차장', '치안', '미용실', '막차']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['동대문역 맛집동대문역 입원실동대문역 카페동대문역 4호선동대문역 근처 맛집동대문역 한의원동대문역 놀거리동대문역 술집동대문역 1호선동대문역 물품보관함동대문역 주차장동대문역 호텔동대문역 닭한마리동대문역 스타벅스동대문역 9번출구동대문역 시간표동대문역 1호선 시간표동대문역사역동대문역 공영주차장서울역에서 동대문역']</t>
+          <t>['맛집', '입원실', '카페', '4호선', '근처 맛집', '한의원', '놀거리', '술집', '1호선', '물품보관함', '주차장', '호텔', '닭한마리', '스타벅스', '9번출구', '시간표', '1호선 시간표', '사', '공영주차장', '서울역에서']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['뚝섬역 맛집뚝섬역 카페뚝섬역 술집뚝섬역 놀거리뚝섬역 미용실뚝섬역 파스타뚝섬역 한강뚝섬역 꽃집뚝섬역 브런치뚝섬역 주차장뚝섬역 물품보관함뚝섬역 케이크뚝섬역 소품샵뚝섬역 혼밥뚝섬역 한강공원뚝섬역 자양역뚝섬역 이름성수역뚝섬자양역']</t>
+          <t>['맛집', '카페', '술집', '놀거리', '미용실', '파스타', '한강', '꽃집', '브런치', '주차장', '물품보관함', '케이크', '소품샵', '혼밥', '한강공원', '자양', '이름', '성수', '자양']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['미아사거리역 맛집미아사거리역 카페미아사거리역 술집미아사거리역 미용실성북구 안과 서울신세계안과 미아사거리역미아사거리역 밥집미아사거리역 혼밥미아사거리역 꽃집미아사거리역 피부과미아사거리역 4호선 시간표미아사거리역 아파트미아사거리역 고기집미아사거리역 떡볶이미아사거리역 횟집미아사거리역 김밥미아사거리역 초밥미아사거리역 점심미아사거리역 곱창미아사거리역 스타벅스미아사거리역 삼겹살']</t>
+          <t>['맛집', '카페', '술집', '미용실', '성북구 안과 서울신세계안과', '밥집', '혼밥', '꽃집', '피부과', '4호선 시간표', '아파트', '고기집', '떡볶이', '횟집', '김밥', '초밥', '점심', '곱창', '스타벅스', '삼겹살']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['발산역 카페발산역 술집발산역 피부과발산역 미용실발산역 치과발산역헬스장발산역 꽃집발산역 횟집발산역 고깃집발산역 곱창발산역 삼겹살발산역 샤브샤브발산역 이자카야발산역 초밥팬텀짐 발산역 헬스장발산역 한정식더케이스타일 발산역미용실발산역 뷔페발산역 다이소발산역 맛집']</t>
+          <t>['카페', '술집', '피부과', '미용실', '치과', '헬스장', '꽃집', '횟집', '고깃집', '곱창', '삼겹살', '샤브샤브', '이자카야', '초밥', '팬텀짐 발산역 헬스장', '한정식', '더케이스타일 발산역미용실', '뷔페', '다이소', '맛집']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['사당역 카페사당역 술집사당역 4호선사당역 파스텔시티사당역 횟집사당역 미용실사당역 놀거리사당역 공영주차장사당역 고기집사당역 이자카야사당역 야장사당역 삼겹살사당역 파스타사당역 꽃집사당역 스타벅스사당역 혼밥사당역 브런치사당역 2호선사당역 곱창사당역 샤브샤브']</t>
+          <t>['카페', '술집', '4호선', '파스텔시티', '횟집', '미용실', '놀거리', '공영주차장', '고기집', '이자카야', '야장', '삼겹살', '파스타', '꽃집', '스타벅스', '혼밥', '브런치', '2호선', '곱창', '샤브샤브']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['삼각지역 맛집삼각지역 카페삼각지역 술집삼각지역 놀거리삼각지역 6호선삼각지역 브런치삼각지역 공영주차장삼각지역 주차장삼각지역 야장삼각지역 이자카야삼각지역 4호선삼각지역 물품보관함삼각지역 케이크삼각지역 오피스텔삼각지역 아파트삼각지역 스타벅스삼각지역 소품샵삼각지역 맛집 우에노 삼각지 일식 맛집서울6호선삼각지역삼각지역 꽃집']</t>
+          <t>['맛집', '카페', '술집', '놀거리', '6호선', '브런치', '공영주차장', '주차장', '야장', '이자카야', '4호선', '물품보관함', '케이크', '오피스텔', '아파트', '스타벅스', '소품샵', '맛집 우에노 삼각지 일식 맛집', '서울6호선', '꽃집']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['서울대입구역 카페서울대입구역 미용실서울대입구역 술집서울대입구역 피부과서울대입구역 오피스텔서울대입구역 치과서울대입구역 롯데시네마서울대입구역 놀거리서울대입구역 헬스장서울대입구역 원룸서울대입구역 꽃집서울대입구역 네일서울대입구역 혼밥서울대입구역 이비인후과서울대입구역 케이크서울대입구역 아파트서울대입구역 초밥서울대입구역 고기서울대입구역 영화관서울대입구역 맛집']</t>
+          <t>['카페', '미용실', '술집', '피부과', '오피스텔', '치과', '롯데시네마', '놀거리', '헬스장', '원룸', '꽃집', '네일', '혼밥', '이비인후과', '케이크', '아파트', '초밥', '고기', '영화관', '맛집']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['마곡나루역 밥집마곡나루역 오피스텔마곡나루역 카페마곡나루역 술집마곡나루역보타닉푸르지오시티마곡나루역 미용실마곡나루역 공항철도마곡나루역 아파트마곡나루역캐슬파크마곡나루역 꽃집마곡나루역 점심마곡나루역 9호선마곡나루역 브런치마곡나루역 삼겹살마곡나루역 파스타마곡나루역 스타벅스마곡나루역 식물원마곡역마곡나루신방화역']</t>
+          <t>['밥집', '오피스텔', '카페', '술집', '보타닉푸르지오시티', '미용실', '공항철도', '아파트', '캐슬파크', '꽃집', '점심', '9호선', '브런치', '삼겹살', '파스타', '스타벅스', '식물원', '신방화']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['서울역맛집서울역 ktx서울역 카페서울역 롯데아울렛서울역 식당서울역 놀거리서울역 주차장서울역 사고서울역 공항철도서울역 롯데마트서울역 경의선 시간표포포인츠 바이 쉐라톤 서울역서울역 1호선서울역 4호선성심당 서울역서울역 개발서울역 열차사고서울역 영화서울역 주변']</t>
+          <t>['맛집', 'ktx', '카페', '롯데아울렛', '식당', '놀거리', '주차장', '사고', '공항철도', '롯데마트', '경의선 시간표', '포포인츠 바이 쉐라톤', '1호선', '4호선', '성심당', '개발', '열차사고', '영화', '주변']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['선릉역정형외과선릉역피부과선릉역 카페선릉역 술집선릉역 미용실선릉역 치과선릉역 한의원선릉역 점심선릉역 혼밥선릉역 스타벅스선릉역 고기집선릉역 안과선릉역 오피스텔선릉역 떡볶이선릉역 점심 맛집선릉역 브런치선릉역 순대국선릉역 삼겹살선릉역 꽃집선릉역 샐러드']</t>
+          <t>['정형외과', '피부과', '카페', '술집', '미용실', '치과', '한의원', '점심', '혼밥', '스타벅스', '고기집', '안과', '오피스텔', '떡볶이', '점심 맛집', '브런치', '순대국', '삼겹살', '꽃집', '샐러드']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['성신여대입구역 맛집성신여대입구역 카페성신여대입구역 4호선성신여대입구역 술집성신여대입구역 4호선 시간표성신여대입구역 연어 연꽃치서울4호선성신여대입구역성신여대입구역 놀거리성신여대입구']</t>
+          <t>['맛집', '카페', '4호선', '술집', '4호선 시간표', '연어 연꽃치', '서울4호선', '놀거리']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['수유역 미용실수유역 카페수유역치과수유역 술집수유역 피부과수유역 헬스장수유역 안과수유역 네일수유역 꽃집수유역 헬스장 DW 휘트니스 수유점수유역 고기집수유역 뷔페수유역 이비인후과수유역 내과수유역 횟집수유역 정형외과수유역 놀거리수유역 혼밥수유역 삼겹살수유역 롯데시네마']</t>
+          <t>['미용실', '카페', '치과', '술집', '피부과', '헬스장', '안과', '네일', '꽃집', '헬스장 DW 휘트니스 수유점', '고기집', '뷔페', '이비인후과', '내과', '횟집', '정형외과', '놀거리', '혼밥', '삼겹살', '롯데시네마']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['신논현역 카페신논현역 술집신논현역 미용실신논현역 9호선신논현역 혼밥신논현역 점심신논현역 9호선 시간표신논현역 놀거리신논현역 이자카야신논현역 밥집신논현역 브런치신논현역 신분당선신논현역 교보문고신논현역 맛짖신논현역 급행신논현역 가는길신논현 맛집논현역신논현']</t>
+          <t>['카페', '술집', '미용실', '9호선', '혼밥', '점심', '9호선 시간표', '놀거리', '이자카야', '밥집', '브런치', '신분당선', '교보문고', '맛짖', '급행', '가는길', '맛집']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['인천논현역논현역 카페논현역 술집인천논현역 시간표논현역 피부과논현역 헬스장논현역 신분당선논현역 미용실논현역 야장논현역 혼밥논현역 횟집논현역 스타벅스논현역 브런치논현역 이자카야논현역 놀거리논현역 삼겹살논현역 점심논현역 비뇨기과논현역 고기집신논현역']</t>
+          <t>['인천', '카페', '술집', '인천논현역 시간표', '피부과', '헬스장', '신분당선', '미용실', '야장', '혼밥', '횟집', '스타벅스', '브런치', '이자카야', '놀거리', '삼겹살', '점심', '비뇨기과', '고기집', '신']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['신도림역 1호선신도림역 카페신도림역 2호선신도림역 1호선 시간표신도림역 술집신도림역 비욘더신도림역 전철시간표신도림역 피부관리실신도림역 피부관리신도림역 마사지신도림역 아파트신도림맛집 문어부인삼교비신도림역신도림역 시간표신도림역 팔각도신도림역 미용실신도림역 2호선 시간표신도림역 현대백화점신도림역 놀거리신도림역 급행신도림역 디큐브시티']</t>
+          <t>['1호선', '카페', '2호선', '1호선 시간표', '술집', '비욘더', '전철시간표', '피부관리실', '피부관리', '마사지', '아파트', '맛집 문어부인삼교비', '시간표', '팔각', '미용실', '2호선 시간표', '현대백화점', '놀거리', '급행', '디큐브시티']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['신림역 미용실신림역 술집신림역 카페신림역 칼부림신림역 피부과신림역 정형외과신림역 네일신림역 혼밥신림역 꽃집신림역 이비인후과신림역 롯데시네마신림역 마사지신림역 다이소신림역 횟집신림역 헬스장신림역 놀거리신림역 공영주차장신림역 주차장신림역 삼겹살신림역 밥집']</t>
+          <t>['미용실', '술집', '카페', '칼부', '피부과', '정형외과', '네일', '혼밥', '꽃집', '이비인후과', '롯데시네마', '마사지', '다이소', '횟집', '헬스장', '놀거리', '공영주차장', '주차장', '삼겹살', '밥집']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['신촌역 카페신촌역 경의선 시간표신촌역 술집신촌역 놀거리신촌역 경의중앙선신촌역 혼밥신촌역 미용실신촌역 공영주차장신촌역 물품보관함신촌역 떡볶이신촌역 주차장신촌역 2호선신촌역 밥집신촌역 다이소신촌역 스타벅스신촌역 꽃집서울역에서 신촌역신촌역 오피스텔신촌역 초밥신촌역 이자카야']</t>
+          <t>['카페', '경의선 시간표', '술집', '놀거리', '경의중앙선', '혼밥', '미용실', '공영주차장', '물품보관함', '떡볶이', '주차장', '2호선', '밥집', '다이소', '스타벅스', '꽃집', '서울역에서', '오피스텔', '초밥', '이자카야']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['이대역 카페이대역 미용실이대역 다이소이대역푸르지오시티이대역 오피스텔이대역 꽃집이대 미용실 하이엔드뷰티랩 이대역본점이대역 혼밥이대앞 미용실 하이엔드뷰티랩 이대역본점이대역 스타벅스이대역 아파트이대역 네일이대역 피부과이대역 술집이대역 브런치이대입구역이대역 김밥이대역 내과이대역 이비인후과이대역 샐러드']</t>
+          <t>['카페', '미용실', '다이소', '푸르지오시티', '오피스텔', '꽃집', '미용실 하이엔드뷰티랩 이대역본점', '혼밥', '앞 미용실 하이엔드뷰티랩 이대역본점', '스타벅스', '아파트', '네일', '피부과', '술집', '브런치', '입구', '김밥', '내과', '이비인후과', '샐러드']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['양재역 카페양재역정형외과양재역 헬스장양재역 미용실양재역 샤브샤브양재역 술집양재역 피부과양재역 삼겹살양재역 스타벅스양재역 꽃집양재역 브런치양재역 오피스텔양재역 아파트양재역 한정식양재역 혼밥양재역 이비인후과양재역 주차장양재역 고기집양재역 놀거리양재역 신분당선']</t>
+          <t>['카페', '정형외과', '헬스장', '미용실', '샤브샤브', '술집', '피부과', '삼겹살', '스타벅스', '꽃집', '브런치', '오피스텔', '아파트', '한정식', '혼밥', '이비인후과', '주차장', '고기집', '놀거리', '신분당선']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['역삼역 카페역삼역 술집역삼역네일역삼역 미용실역삼역 점심역삼역센트럴푸르지오시티역삼역 놀거리역삼역 혼밥역삼역 카페 미니말레 역삼점역삼역 피부과역삼역 정형외과역삼역 스타벅스역삼역 이자카야역삼역 점심 맛집역삼역 호텔역삼역 안과역삼역 삼겹살역삼역 브런치역삼역 고기집역삼역 샐러드']</t>
+          <t>['카페', '술집', '네일', '미용실', '점심', '센트럴푸르지오시티', '놀거리', '혼밥', '카페 미니말레 역삼점', '피부과', '정형외과', '스타벅스', '이자카야', '점심 맛집', '호텔', '안과', '삼겹살', '브런치', '고기집', '샐러드']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['연신내역 맛집연신내역낙지맛집연신내역 루체스테이션연신내역 3호선연신내역 카페연신내역 6호선연신내역 삼겹살연신내역 주차장연신내역 아파트연신내역 미용실연신내역 THE STUDIO 163연신내역 공영주차장연신내역 술집연신내역 시간표연신내역 오피스텔연신내역 3호선 시간표연신내역 피부과연신내역 헬스장연신내역 놀거리연신내역 gtx']</t>
+          <t>['맛집', '낙지맛집', '루체스테이션', '3호선', '카페', '6호선', '삼겹살', '주차장', '아파트', '미용실', 'THE STUDIO 163', '공영주차장', '술집', '시간표', '오피스텔', '3호선 시간표', '피부과', '헬스장', '놀거리', 'gtx']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['오목교역 맛집오목교역 카페오목교역 술집오목교역 미용실오목교역 아파트오목교역 피부과오목교역 혼밥오목교역 꽃집오목교역 빵집오목교역 브런치오목교역 스타벅스오목교역 샐러드오목교역 네일오목교역 고기집오목교역 현대백화점오목교역 횟집오목교역 떡볶이오목교역 5호선 시간표오목교역 놀거리오목교역 점심']</t>
+          <t>['맛집', '카페', '술집', '미용실', '아파트', '피부과', '혼밥', '꽃집', '빵집', '브런치', '스타벅스', '샐러드', '네일', '고기집', '현대백화점', '횟집', '떡볶이', '5호선 시간표', '놀거리', '점심']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['왕십리역 맛집왕십리역 경의중앙선왕십리역 카페왕십리역 고기집왕십리역 술집왕십리역 경의중앙선 시간표왕십리역 아파트왕십리역 2호선왕십리역 5호선왕십리역 엔터식스왕십리역 놀거리왕십리역 시간표왕십리역 이마트왕십리역 cgv왕십리역 쇼핑몰왕십리역 지하철청량리역왕십리맛집왕십리 cgv왕십리']</t>
+          <t>['맛집', '경의중앙선', '카페', '고기집', '술집', '경의중앙선 시간표', '아파트', '2호선', '5호선', '엔터식스', '놀거', '시간표', '이마트', 'cgv', '쇼핑몰', '지하철', '청량', '맛집', 'cgv']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['용산역 아이파크몰용산역 카페용산역 ktx용산역 아이파크몰 맛집용산역 1호선용산역 경의중앙선용산역 놀거리대구 용산역용산역 주차장용산역 술집용산역 1호선 시간표용산역 경의중앙선 시간표용산역 스타벅스용산역 식당용산역 cgv용산역 흡연구역용산역 물품보관함용산역 호텔용산역 다이소용산역 꽃집']</t>
+          <t>['아이파크몰', '카페', 'ktx', '아이파크몰 맛집', '1호선', '경의중앙선', '놀거리', '대구', '주차장', '술집', '1호선 시간표', '경의중앙선 시간표', '스타벅스', '식당', 'cgv', '흡연구', '물품보관함', '호텔', '다이소', '꽃집']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['이태원역 맛집이태원역 카페이태원역 술집이태원역 놀거리이태원역 주차장이태원역 물품보관함이태원역 브런치이태원역 공영주차장이태원역 케이크서울역에서 이태원역이태원역 한식이태원역 피자이태원역 혼밥이태원역 스타벅스용산역에서 이태원역이태원역 6호선 시간표이태원역 짐보관이태원역 밥집이태원역 꽃집이태원역 타코']</t>
+          <t>['맛집', '카페', '술집', '놀거리', '주차장', '물품보관함', '브런치', '공영주차장', '케이크', '서울역에서', '한식', '피자', '혼밥', '스타벅스', '용산역에서', '6호선 시간표', '짐보관', '밥집', '꽃집', '타코']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['장지역 맛집장지역 가든파이브장지역 카페장지역 미용실장지역 공항버스장지역 아파트장지역 오피스텔장지역 꽃집장지역 술집장지역 시외버스장지역 cgv장지역 8호선장지역 8호선 시간표장지역 네일장지역 이마트장지역 스타벅스장지역 헬스장장지역 피부과장지역 찜질방장지역 브런치']</t>
+          <t>['맛집', '가든파이브', '카페', '미용실', '공항버스', '아파트', '오피스텔', '꽃집', '술집', '시외버스', 'cgv', '8호선', '8호선 시간표', '네일', '이마트', '스타벅스', '헬스', '피부과', '찜질방', '브런치']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['장한평역 카페장한평역 오피스텔장한평역 미용실장한평역 술집장한평역 스타벅스장한평역 헬스장장한평역 횟집장한평역 5호선 시간표장한평역 네일장한평역 아파트장한평역 다이소장한평역 국수집장한평역 공항버스장한평역 정형외과장한평역 주차장장한평역 고기집장한평역 이비인후과장한평역 점심장한평역 피부과장한평역 김밥']</t>
+          <t>['카페', '오피스텔', '미용실', '술집', '스타벅스', '헬스', '횟집', '5호선 시간표', '네일', '아파트', '다이소', '국수집', '공항버스', '정형외과', '주차', '고기집', '이비인후과', '점심', '피부과', '김밥']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['천호역 맛집힐스테이트천호역젠트리스천호역 카페천호역피부과천호역 공영주차장천호역 효성해링턴타워천호역 술집천호역 미용실천호역 오피스텔천호역 8호선천호역 아파트천호역치과 연세웰치과의원천호역 5호선천호역 현대백화점천호역 놀거리천호역 스타벅스잠실역강동역암사역굽은다리역']</t>
+          <t>['맛집', '힐스테이트천호역젠트리스', '카페', '피부과', '공영주차장', '효성해링턴타워', '술집', '미용실', '오피스텔', '8호선', '아파트', '치과 연세웰치과의원', '5호선', '현대백화점', '놀거리', '스타벅스', '잠실', '강동', '암사', '굽은다리']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['이수역 맛집이수역 카페이수역 술집이수역 미용실이수역 메가박스이수역 피부과이수역 아파트이수역 놀거리이수역 떡볶이이수역 정형외과이수역 사고이수역 고기집이수역 꽃집이수역 정형외과 나스정형외과의원이수역 횟집이수역 야장이수역 4호선이수역 교통사고이수역 오토바이이수역 4호선 시간표']</t>
+          <t>['맛집', '카페', '술집', '미용실', '메가박스', '피부과', '아파트', '놀거리', '떡볶', '정형외과', '사고', '고기집', '꽃집', '정형외과 나스정형외과의원', '횟집', '야장', '4호선', '교통사고', '오토바', '4호선 시간표']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['충정로역 카페충정로역 술집충정로역 2호선충정로역 오피스텔서울2호선충정로역충정로역 아파트충정로역 헬륨풍선충정로역 스타벅스충정로역 5호선충정로역 풍선충정로역 헬륨충정로역 점심충정로역 미용실충정로역마을버스충정로역 사고충정로역 혼밥충정로역 헬륨가스충정로역 2호선 시간표충정로역 지하철충정로']</t>
+          <t>['카페', '술집', '2호선', '오피스텔', '서울2호선', '아파트', '헬륨풍선', '스타벅스', '5호선', '풍선', '헬륨', '점심', '미용실', '마을버스', '사고', '혼밥', '헬륨가스', '2호선 시간표', '지하철']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['합정역 카페합정역 술집합정역 놀거리합정역 5번출구합정역 이자카야합정역 미용실합정역 꽃집합정역 혼밥합정역 소품샵합정역 공영주차장합정역 브런치합정역 6호선합정역 고기집합정역 주차장합정역 디저트합정역 아파트합정역 7번출구합정역 가는길합정역 버스합정맛집']</t>
+          <t>['카페', '술집', '놀거리', '5번출구', '이자카야', '미용실', '꽃집', '혼밥', '소품샵', '공영주차장', '브런치', '6호선', '고기집', '주차장', '디저트', '아파트', '7번출구', '가는길', '버스', '맛집']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['혜화역 연극혜화역 카페혜화역 놀거리혜화역 술집혜화역 주차장혜화역 시위혜화역 혼밥혜화역 공영주차장혜화역 소품샵혜화역 데이트혜화역 파스타혜화역 꽃집혜화역 방탈출혜화역 2번출구혜화역 1번출구혜화역 장애인혜화역 경찰혜화역 장애인 시위혜화맛집혜화연극']</t>
+          <t>['연극', '카페', '놀거리', '술집', '주차장', '시위', '혼밥', '공영주차장', '소품샵', '데이트', '파스타', '꽃집', '방탈출', '2번출구', '1번출구', '장애인', '경찰', '장애인 시위', '맛집', '연극']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['홍대입구역 카페홍대입구역 경의선 시간표홍대입구역 술집홍대입구역 경의중앙선홍대입구역 물품보관소홍대입구역 주차장홍대입구역 2호선홍대입구역 놀거리홍대입구역 혼밥홍대입구역 공항철도홍대입구역 9번출구홍대입구역 2호선 시간표홍대입구역 3번출구홍대입구역 공영주차장홍대입구역 미용실홍대입구역 파스타홍대입구역 8번출구홍대입구역 옷가게홍대입구역 가는법홍대입구역 7번출구']</t>
+          <t>['카페', '경의선 시간표', '술집', '경의중앙선', '물품보관소', '주차장', '2호선', '놀거리', '혼밥', '공항철도', '9번출', '2호선 시간표', '3번출', '공영주차장', '미용실', '파스타', '8번출', '옷가게', '가는법', '7번출']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['회기역 맛집회기역 경의중앙선회기역 1호선회기역 카페회기역 경의중앙선 시간표회기역 시간표회기역 술집회기역 경춘선회기역 미용실회기역 1호선 시간표회기역 미래사주회기역 파전골목회기역 오피스텔회기역 놀거리회기역 파전회기역 꽃집회기역 아파트회기역 근처 맛집청량리역상봉역']</t>
+          <t>['맛집', '경의중앙선', '1호선', '카페', '경의중앙선 시간표', '시간표', '술집', '경춘선', '미용실', '1호선 시간표', '미래사주', '파전골목', '오피스텔', '놀거리', '파전', '꽃집', '아파트', '근처 맛집', '청량리', '상봉']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
